--- a/CENSOS-BOVINOS-2023-Final.xlsx
+++ b/CENSOS-BOVINOS-2023-Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atolosa\Desktop\Python\Bee-App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atolosa\Desktop\Python\DatosBovinos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{125F946C-805B-4213-A060-6A1393F49F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431FEAA6-641C-4961-9047-D162142259D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="695"/>
+    <workbookView xWindow="-28815" yWindow="7860" windowWidth="28830" windowHeight="7905" tabRatio="695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOVINOS Y PREDIOS" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BOVINOS Y PREDIOS'!$A$5:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabla_Departamentos!$A$5:$O$5</definedName>
     <definedName name="AMAZONAS">#REF!</definedName>
     <definedName name="ANTIOQUIA">#REF!</definedName>
     <definedName name="ARAUCA">#REF!</definedName>
@@ -6682,7 +6683,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7216,7 +7217,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -7346,8 +7347,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>619125</xdr:rowOff>
     </xdr:to>
@@ -7672,15 +7673,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV1127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M2" sqref="M2"/>
       <selection pane="topRight" activeCell="M2" sqref="M2"/>
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -70484,7 +70485,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A5:C5"/>
+  <autoFilter ref="A5:C5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A6:Q1126">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A6))=0</formula>
@@ -70501,11 +70502,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:K1126">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:K1126" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:P1126">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:P1126" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -70521,20 +70522,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -72349,7 +72359,7 @@
       <c r="E42" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A5:O5" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
